--- a/Gazetteer/GazetteerETL/Resources/UniversalGazetterModel.xlsx
+++ b/Gazetteer/GazetteerETL/Resources/UniversalGazetterModel.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7616" uniqueCount="4293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7620" uniqueCount="4296">
   <si>
     <t>RECORD_ID</t>
   </si>
@@ -12906,6 +12906,15 @@
   </si>
   <si>
     <t>A category used to indicate the category/type of name: natural language,code, abbreviated name, phonetic …. The vast majority of the gazetteer will have the vale NAME. meaning a natural language name for a place</t>
+  </si>
+  <si>
+    <t>Splitcategory</t>
+  </si>
+  <si>
+    <t>range:[NonLatin,Rare,Basic,WellKnown,&lt;BLANK&gt;]</t>
+  </si>
+  <si>
+    <t>This field indicates a broad category to which the record belongs intended to be used to partition the gazetteer to allow subsets  of the gazetteer to be used while still covering most of the commonly mentioned places. Basic plus WellKnow for a small but well performing subset.</t>
   </si>
 </sst>
 </file>
@@ -13778,10 +13787,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14107,6 +14116,20 @@
       </c>
       <c r="D25" t="s">
         <v>4290</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>4293</v>
+      </c>
+      <c r="B26" t="s">
+        <v>4283</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4294</v>
+      </c>
+      <c r="D26" t="s">
+        <v>4295</v>
       </c>
     </row>
   </sheetData>
